--- a/mc-table-crossed-glued.xlsx
+++ b/mc-table-crossed-glued.xlsx
@@ -958,7 +958,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -973,7 +973,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="Z2" s="3" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1008,7 +1008,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AG2" s="1" t="inlineStr">
+      <c r="AG2" s="3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1053,12 +1053,12 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AP2" s="4" t="inlineStr">
+      <c r="AP2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AQ2" s="1" t="inlineStr">
+      <c r="AQ2" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1068,12 +1068,12 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AS2" s="4" t="inlineStr">
+      <c r="AS2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AT2" s="4" t="inlineStr">
+      <c r="AT2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1083,12 +1083,12 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AV2" s="4" t="inlineStr">
+      <c r="AV2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AW2" s="4" t="inlineStr">
+      <c r="AW2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1103,7 +1103,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AZ2" s="1" t="inlineStr">
+      <c r="AZ2" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1113,7 +1113,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="BB2" s="1" t="inlineStr">
+      <c r="BB2" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1133,27 +1133,27 @@
           <t>00000</t>
         </is>
       </c>
-      <c r="BF2" s="4" t="inlineStr">
+      <c r="BF2" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BG2" s="1" t="inlineStr">
+      <c r="BG2" s="4" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BH2" s="4" t="inlineStr">
+      <c r="BH2" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BI2" s="4" t="inlineStr">
+      <c r="BI2" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BJ2" s="1" t="inlineStr">
+      <c r="BJ2" s="4" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
@@ -1280,7 +1280,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
+      <c r="W3" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1295,7 +1295,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="Z3" s="3" t="inlineStr">
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1330,7 +1330,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AG3" s="1" t="inlineStr">
+      <c r="AG3" s="3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1375,12 +1375,12 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AP3" s="4" t="inlineStr">
+      <c r="AP3" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AQ3" s="1" t="inlineStr">
+      <c r="AQ3" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1390,12 +1390,12 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AS3" s="4" t="inlineStr">
+      <c r="AS3" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AT3" s="4" t="inlineStr">
+      <c r="AT3" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -1405,12 +1405,12 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AV3" s="4" t="inlineStr">
+      <c r="AV3" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AW3" s="4" t="inlineStr">
+      <c r="AW3" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -1425,7 +1425,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AZ3" s="1" t="inlineStr">
+      <c r="AZ3" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1435,7 +1435,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="BB3" s="1" t="inlineStr">
+      <c r="BB3" s="4" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -1455,27 +1455,27 @@
           <t>00000</t>
         </is>
       </c>
-      <c r="BF3" s="4" t="inlineStr">
+      <c r="BF3" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BG3" s="1" t="inlineStr">
+      <c r="BG3" s="4" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BH3" s="4" t="inlineStr">
+      <c r="BH3" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BI3" s="4" t="inlineStr">
+      <c r="BI3" s="3" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BJ3" s="1" t="inlineStr">
+      <c r="BJ3" s="4" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
@@ -1602,12 +1602,12 @@
           <t>000</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
+      <c r="W4" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="X4" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -1617,7 +1617,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="Z4" s="3" t="inlineStr">
+      <c r="Z4" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1697,12 +1697,12 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AP4" s="4" t="inlineStr">
+      <c r="AP4" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AQ4" s="4" t="inlineStr">
+      <c r="AQ4" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -1712,27 +1712,27 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AS4" s="4" t="inlineStr">
+      <c r="AS4" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AT4" s="4" t="inlineStr">
+      <c r="AT4" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AU4" s="4" t="inlineStr">
+      <c r="AU4" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="AV4" s="4" t="inlineStr">
+      <c r="AV4" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AW4" s="4" t="inlineStr">
+      <c r="AW4" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1772,27 +1772,27 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="BE4" s="4" t="inlineStr">
+      <c r="BE4" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BF4" s="4" t="inlineStr">
+      <c r="BF4" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BG4" s="4" t="inlineStr">
+      <c r="BG4" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BH4" s="4" t="inlineStr">
+      <c r="BH4" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BI4" s="4" t="inlineStr">
+      <c r="BI4" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
@@ -1802,14 +1802,14 @@
           <t>00010</t>
         </is>
       </c>
-      <c r="BK4" s="4" t="inlineStr">
+      <c r="BK4" s="1" t="inlineStr">
         <is>
           <t>000010</t>
         </is>
       </c>
-      <c r="BL4" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL4" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1924,12 +1924,12 @@
           <t>000</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
+      <c r="W5" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="X5" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -1939,7 +1939,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="Z5" s="3" t="inlineStr">
+      <c r="Z5" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -2019,12 +2019,12 @@
           <t>011</t>
         </is>
       </c>
-      <c r="AP5" s="4" t="inlineStr">
+      <c r="AP5" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AQ5" s="4" t="inlineStr">
+      <c r="AQ5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -2034,27 +2034,27 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AS5" s="4" t="inlineStr">
+      <c r="AS5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AT5" s="4" t="inlineStr">
+      <c r="AT5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AU5" s="4" t="inlineStr">
+      <c r="AU5" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
       </c>
-      <c r="AV5" s="4" t="inlineStr">
+      <c r="AV5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AW5" s="4" t="inlineStr">
+      <c r="AW5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -2094,27 +2094,27 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BE5" s="4" t="inlineStr">
+      <c r="BE5" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BF5" s="4" t="inlineStr">
+      <c r="BF5" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BG5" s="4" t="inlineStr">
+      <c r="BG5" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="BH5" s="4" t="inlineStr">
+      <c r="BH5" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="BI5" s="4" t="inlineStr">
+      <c r="BI5" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
@@ -2124,14 +2124,14 @@
           <t>00011</t>
         </is>
       </c>
-      <c r="BK5" s="4" t="inlineStr">
+      <c r="BK5" s="1" t="inlineStr">
         <is>
           <t>000011</t>
         </is>
       </c>
-      <c r="BL5" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL5" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AG6" s="1" t="inlineStr">
+      <c r="AG6" s="3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -2346,7 +2346,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AQ6" s="1" t="inlineStr">
+      <c r="AQ6" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -2376,7 +2376,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AW6" s="1" t="inlineStr">
+      <c r="AW6" s="3" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -2391,17 +2391,17 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="AZ6" s="1" t="inlineStr">
+      <c r="AZ6" s="4" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="BA6" s="1" t="inlineStr">
+      <c r="BA6" s="3" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="BB6" s="1" t="inlineStr">
+      <c r="BB6" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -2416,17 +2416,17 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="BE6" s="1" t="inlineStr">
+      <c r="BE6" s="4" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BF6" s="1" t="inlineStr">
+      <c r="BF6" s="4" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BG6" s="1" t="inlineStr">
+      <c r="BG6" s="4" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
@@ -2436,24 +2436,24 @@
           <t>00100</t>
         </is>
       </c>
-      <c r="BI6" s="1" t="inlineStr">
+      <c r="BI6" s="4" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BJ6" s="1" t="inlineStr">
+      <c r="BJ6" s="4" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BK6" s="1" t="inlineStr">
+      <c r="BK6" s="4" t="inlineStr">
         <is>
           <t>000100</t>
         </is>
       </c>
-      <c r="BL6" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL6" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AG7" s="1" t="inlineStr">
+      <c r="AG7" s="3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -2668,7 +2668,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AQ7" s="1" t="inlineStr">
+      <c r="AQ7" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -2713,7 +2713,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AZ7" s="1" t="inlineStr">
+      <c r="AZ7" s="4" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -2723,7 +2723,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BB7" s="1" t="inlineStr">
+      <c r="BB7" s="4" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -2738,7 +2738,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="BE7" s="1" t="inlineStr">
+      <c r="BE7" s="4" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
@@ -2748,7 +2748,7 @@
           <t>00011</t>
         </is>
       </c>
-      <c r="BG7" s="1" t="inlineStr">
+      <c r="BG7" s="4" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
@@ -2763,19 +2763,19 @@
           <t>00101</t>
         </is>
       </c>
-      <c r="BJ7" s="1" t="inlineStr">
+      <c r="BJ7" s="4" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
       </c>
-      <c r="BK7" s="1" t="inlineStr">
+      <c r="BK7" s="4" t="inlineStr">
         <is>
           <t>000101</t>
         </is>
       </c>
-      <c r="BL7" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL7" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="X8" s="3" t="inlineStr">
+      <c r="X8" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -2980,7 +2980,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AO8" s="1" t="inlineStr">
+      <c r="AO8" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -2990,7 +2990,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AQ8" s="4" t="inlineStr">
+      <c r="AQ8" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -3000,7 +3000,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AS8" s="4" t="inlineStr">
+      <c r="AS8" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -3010,7 +3010,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AU8" s="4" t="inlineStr">
+      <c r="AU8" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3020,7 +3020,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AW8" s="1" t="inlineStr">
+      <c r="AW8" s="3" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3030,7 +3030,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AY8" s="1" t="inlineStr">
+      <c r="AY8" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -3040,7 +3040,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BA8" s="1" t="inlineStr">
+      <c r="BA8" s="3" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3050,27 +3050,27 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="BC8" s="1" t="inlineStr">
+      <c r="BC8" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BD8" s="1" t="inlineStr">
+      <c r="BD8" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BE8" s="4" t="inlineStr">
+      <c r="BE8" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="BF8" s="1" t="inlineStr">
+      <c r="BF8" s="4" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BG8" s="4" t="inlineStr">
+      <c r="BG8" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
@@ -3080,12 +3080,12 @@
           <t>00110</t>
         </is>
       </c>
-      <c r="BI8" s="1" t="inlineStr">
+      <c r="BI8" s="4" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
       </c>
-      <c r="BJ8" s="1" t="inlineStr">
+      <c r="BJ8" s="4" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
@@ -3217,7 +3217,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="X9" s="3" t="inlineStr">
+      <c r="X9" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -3312,7 +3312,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AQ9" s="4" t="inlineStr">
+      <c r="AQ9" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -3322,7 +3322,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AS9" s="4" t="inlineStr">
+      <c r="AS9" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -3332,7 +3332,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AU9" s="4" t="inlineStr">
+      <c r="AU9" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -3382,7 +3382,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="BE9" s="4" t="inlineStr">
+      <c r="BE9" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
@@ -3392,12 +3392,12 @@
           <t>00011</t>
         </is>
       </c>
-      <c r="BG9" s="4" t="inlineStr">
+      <c r="BG9" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="BH9" s="4" t="inlineStr">
+      <c r="BH9" s="1" t="inlineStr">
         <is>
           <t>00111</t>
         </is>
@@ -3412,14 +3412,14 @@
           <t>00111</t>
         </is>
       </c>
-      <c r="BK9" s="4" t="inlineStr">
+      <c r="BK9" s="1" t="inlineStr">
         <is>
           <t>000111</t>
         </is>
       </c>
-      <c r="BL9" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL9" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="W10" s="3" t="inlineStr">
+      <c r="W10" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -3629,7 +3629,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AP10" s="4" t="inlineStr">
+      <c r="AP10" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3644,12 +3644,12 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AS10" s="4" t="inlineStr">
+      <c r="AS10" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AT10" s="4" t="inlineStr">
+      <c r="AT10" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -3704,12 +3704,12 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="BE10" s="4" t="inlineStr">
+      <c r="BE10" s="1" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BF10" s="4" t="inlineStr">
+      <c r="BF10" s="1" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
@@ -3719,7 +3719,7 @@
           <t>00100</t>
         </is>
       </c>
-      <c r="BH10" s="4" t="inlineStr">
+      <c r="BH10" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
@@ -3734,14 +3734,14 @@
           <t>01000</t>
         </is>
       </c>
-      <c r="BK10" s="4" t="inlineStr">
+      <c r="BK10" s="1" t="inlineStr">
         <is>
           <t>001000</t>
         </is>
       </c>
-      <c r="BL10" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL10" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="W11" s="3" t="inlineStr">
+      <c r="W11" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -3951,7 +3951,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AP11" s="4" t="inlineStr">
+      <c r="AP11" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3966,12 +3966,12 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AS11" s="4" t="inlineStr">
+      <c r="AS11" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AT11" s="4" t="inlineStr">
+      <c r="AT11" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -4026,12 +4026,12 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="BE11" s="4" t="inlineStr">
+      <c r="BE11" s="1" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BF11" s="4" t="inlineStr">
+      <c r="BF11" s="1" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
@@ -4041,7 +4041,7 @@
           <t>00101</t>
         </is>
       </c>
-      <c r="BH11" s="4" t="inlineStr">
+      <c r="BH11" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
@@ -4056,14 +4056,14 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BK11" s="4" t="inlineStr">
+      <c r="BK11" s="1" t="inlineStr">
         <is>
           <t>001001</t>
         </is>
       </c>
-      <c r="BL11" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL11" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4178,12 +4178,12 @@
           <t>001</t>
         </is>
       </c>
-      <c r="W12" s="3" t="inlineStr">
+      <c r="W12" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="X12" s="3" t="inlineStr">
+      <c r="X12" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -4273,12 +4273,12 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AP12" s="4" t="inlineStr">
+      <c r="AP12" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="AQ12" s="4" t="inlineStr">
+      <c r="AQ12" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -4288,17 +4288,17 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AS12" s="4" t="inlineStr">
+      <c r="AS12" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AT12" s="4" t="inlineStr">
+      <c r="AT12" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AU12" s="4" t="inlineStr">
+      <c r="AU12" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -4348,22 +4348,22 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BE12" s="4" t="inlineStr">
+      <c r="BE12" s="1" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
       </c>
-      <c r="BF12" s="4" t="inlineStr">
+      <c r="BF12" s="1" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BG12" s="4" t="inlineStr">
+      <c r="BG12" s="1" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
       </c>
-      <c r="BH12" s="4" t="inlineStr">
+      <c r="BH12" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
@@ -4378,14 +4378,14 @@
           <t>01010</t>
         </is>
       </c>
-      <c r="BK12" s="4" t="inlineStr">
+      <c r="BK12" s="1" t="inlineStr">
         <is>
           <t>001010</t>
         </is>
       </c>
-      <c r="BL12" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL12" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4500,12 +4500,12 @@
           <t>001</t>
         </is>
       </c>
-      <c r="W13" s="3" t="inlineStr">
+      <c r="W13" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="X13" s="3" t="inlineStr">
+      <c r="X13" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -4595,12 +4595,12 @@
           <t>011</t>
         </is>
       </c>
-      <c r="AP13" s="4" t="inlineStr">
+      <c r="AP13" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="AQ13" s="4" t="inlineStr">
+      <c r="AQ13" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -4610,17 +4610,17 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AS13" s="4" t="inlineStr">
+      <c r="AS13" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AT13" s="4" t="inlineStr">
+      <c r="AT13" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AU13" s="4" t="inlineStr">
+      <c r="AU13" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -4670,22 +4670,22 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="BE13" s="4" t="inlineStr">
+      <c r="BE13" s="1" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
       </c>
-      <c r="BF13" s="4" t="inlineStr">
+      <c r="BF13" s="1" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
       </c>
-      <c r="BG13" s="4" t="inlineStr">
+      <c r="BG13" s="1" t="inlineStr">
         <is>
           <t>00111</t>
         </is>
       </c>
-      <c r="BH13" s="4" t="inlineStr">
+      <c r="BH13" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
@@ -4700,14 +4700,14 @@
           <t>01011</t>
         </is>
       </c>
-      <c r="BK13" s="4" t="inlineStr">
+      <c r="BK13" s="1" t="inlineStr">
         <is>
           <t>001011</t>
         </is>
       </c>
-      <c r="BL13" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL13" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="X16" s="3" t="inlineStr">
+      <c r="X16" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -5556,7 +5556,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AO16" s="1" t="inlineStr">
+      <c r="AO16" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -5566,7 +5566,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AQ16" s="4" t="inlineStr">
+      <c r="AQ16" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5576,7 +5576,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AS16" s="4" t="inlineStr">
+      <c r="AS16" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5586,7 +5586,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AU16" s="4" t="inlineStr">
+      <c r="AU16" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -5606,12 +5606,12 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AY16" s="1" t="inlineStr">
+      <c r="AY16" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="AZ16" s="1" t="inlineStr">
+      <c r="AZ16" s="3" t="inlineStr">
         <is>
           <t>0111</t>
         </is>
@@ -5626,12 +5626,12 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="BC16" s="1" t="inlineStr">
+      <c r="BC16" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BD16" s="1" t="inlineStr">
+      <c r="BD16" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -5646,7 +5646,7 @@
           <t>00110</t>
         </is>
       </c>
-      <c r="BG16" s="4" t="inlineStr">
+      <c r="BG16" s="1" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
@@ -5656,12 +5656,12 @@
           <t>00110</t>
         </is>
       </c>
-      <c r="BI16" s="1" t="inlineStr">
+      <c r="BI16" s="4" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BJ16" s="1" t="inlineStr">
+      <c r="BJ16" s="4" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
@@ -5793,7 +5793,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="X17" s="3" t="inlineStr">
+      <c r="X17" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -5888,7 +5888,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AQ17" s="4" t="inlineStr">
+      <c r="AQ17" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5898,7 +5898,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AS17" s="4" t="inlineStr">
+      <c r="AS17" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5908,7 +5908,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AU17" s="4" t="inlineStr">
+      <c r="AU17" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5933,7 +5933,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AZ17" s="1" t="inlineStr">
+      <c r="AZ17" s="3" t="inlineStr">
         <is>
           <t>0111</t>
         </is>
@@ -5968,12 +5968,12 @@
           <t>00111</t>
         </is>
       </c>
-      <c r="BG17" s="4" t="inlineStr">
+      <c r="BG17" s="1" t="inlineStr">
         <is>
           <t>00111</t>
         </is>
       </c>
-      <c r="BH17" s="4" t="inlineStr">
+      <c r="BH17" s="1" t="inlineStr">
         <is>
           <t>00111</t>
         </is>
@@ -5983,7 +5983,7 @@
           <t>01111</t>
         </is>
       </c>
-      <c r="BJ17" s="1" t="inlineStr">
+      <c r="BJ17" s="4" t="inlineStr">
         <is>
           <t>01111</t>
         </is>
@@ -6125,7 +6125,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="Z18" s="3" t="inlineStr">
+      <c r="Z18" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -6205,12 +6205,12 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AP18" s="4" t="inlineStr">
+      <c r="AP18" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
       </c>
-      <c r="AQ18" s="3" t="inlineStr">
+      <c r="AQ18" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
@@ -6235,12 +6235,12 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="AV18" s="4" t="inlineStr">
+      <c r="AV18" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AW18" s="4" t="inlineStr">
+      <c r="AW18" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -6280,17 +6280,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="BE18" s="4" t="inlineStr">
+      <c r="BE18" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
       </c>
-      <c r="BF18" s="4" t="inlineStr">
+      <c r="BF18" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
       </c>
-      <c r="BG18" s="4" t="inlineStr">
+      <c r="BG18" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
@@ -6300,7 +6300,7 @@
           <t>01000</t>
         </is>
       </c>
-      <c r="BI18" s="4" t="inlineStr">
+      <c r="BI18" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
@@ -6310,14 +6310,14 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="BK18" s="4" t="inlineStr">
+      <c r="BK18" s="1" t="inlineStr">
         <is>
           <t>010000</t>
         </is>
       </c>
-      <c r="BL18" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL18" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
           <t>011</t>
         </is>
       </c>
-      <c r="Z19" s="3" t="inlineStr">
+      <c r="Z19" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -6527,12 +6527,12 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AP19" s="4" t="inlineStr">
+      <c r="AP19" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
       </c>
-      <c r="AQ19" s="3" t="inlineStr">
+      <c r="AQ19" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
@@ -6557,12 +6557,12 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AV19" s="4" t="inlineStr">
+      <c r="AV19" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AW19" s="4" t="inlineStr">
+      <c r="AW19" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -6602,17 +6602,17 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="BE19" s="4" t="inlineStr">
+      <c r="BE19" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
       </c>
-      <c r="BF19" s="4" t="inlineStr">
+      <c r="BF19" s="3" t="inlineStr">
         <is>
           <t>01001</t>
         </is>
       </c>
-      <c r="BG19" s="4" t="inlineStr">
+      <c r="BG19" s="1" t="inlineStr">
         <is>
           <t>01001</t>
         </is>
@@ -6622,7 +6622,7 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BI19" s="4" t="inlineStr">
+      <c r="BI19" s="3" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
@@ -6769,7 +6769,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="Z20" s="3" t="inlineStr">
+      <c r="Z20" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -6849,12 +6849,12 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AP20" s="4" t="inlineStr">
+      <c r="AP20" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
       </c>
-      <c r="AQ20" s="1" t="inlineStr">
+      <c r="AQ20" s="3" t="inlineStr">
         <is>
           <t>0101</t>
         </is>
@@ -6879,12 +6879,12 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AV20" s="4" t="inlineStr">
+      <c r="AV20" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AW20" s="4" t="inlineStr">
+      <c r="AW20" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -6899,7 +6899,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AZ20" s="3" t="inlineStr">
+      <c r="AZ20" s="1" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -6929,12 +6929,12 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BF20" s="4" t="inlineStr">
+      <c r="BF20" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
       </c>
-      <c r="BG20" s="1" t="inlineStr">
+      <c r="BG20" s="4" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
@@ -6944,12 +6944,12 @@
           <t>01010</t>
         </is>
       </c>
-      <c r="BI20" s="4" t="inlineStr">
+      <c r="BI20" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BJ20" s="4" t="inlineStr">
+      <c r="BJ20" s="1" t="inlineStr">
         <is>
           <t>10010</t>
         </is>
@@ -7091,7 +7091,7 @@
           <t>011</t>
         </is>
       </c>
-      <c r="Z21" s="3" t="inlineStr">
+      <c r="Z21" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -7171,12 +7171,12 @@
           <t>011</t>
         </is>
       </c>
-      <c r="AP21" s="4" t="inlineStr">
+      <c r="AP21" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
       </c>
-      <c r="AQ21" s="1" t="inlineStr">
+      <c r="AQ21" s="3" t="inlineStr">
         <is>
           <t>0101</t>
         </is>
@@ -7201,12 +7201,12 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AV21" s="4" t="inlineStr">
+      <c r="AV21" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AW21" s="4" t="inlineStr">
+      <c r="AW21" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -7221,7 +7221,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AZ21" s="3" t="inlineStr">
+      <c r="AZ21" s="1" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -7231,7 +7231,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="BB21" s="1" t="inlineStr">
+      <c r="BB21" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -7251,22 +7251,22 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BF21" s="4" t="inlineStr">
+      <c r="BF21" s="3" t="inlineStr">
         <is>
           <t>01001</t>
         </is>
       </c>
-      <c r="BG21" s="1" t="inlineStr">
+      <c r="BG21" s="4" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
       </c>
-      <c r="BH21" s="1" t="inlineStr">
+      <c r="BH21" s="3" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
       </c>
-      <c r="BI21" s="4" t="inlineStr">
+      <c r="BI21" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
@@ -7498,7 +7498,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AQ22" s="3" t="inlineStr">
+      <c r="AQ22" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
@@ -7513,7 +7513,7 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AT22" s="1" t="inlineStr">
+      <c r="AT22" s="3" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -7528,7 +7528,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AW22" s="1" t="inlineStr">
+      <c r="AW22" s="3" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -7543,7 +7543,7 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="AZ22" s="3" t="inlineStr">
+      <c r="AZ22" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -7568,32 +7568,32 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="BE22" s="4" t="inlineStr">
+      <c r="BE22" s="1" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
       </c>
-      <c r="BF22" s="1" t="inlineStr">
+      <c r="BF22" s="4" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
       </c>
-      <c r="BG22" s="4" t="inlineStr">
+      <c r="BG22" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
       </c>
-      <c r="BH22" s="1" t="inlineStr">
+      <c r="BH22" s="4" t="inlineStr">
         <is>
           <t>01100</t>
         </is>
       </c>
-      <c r="BI22" s="1" t="inlineStr">
+      <c r="BI22" s="4" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BJ22" s="4" t="inlineStr">
+      <c r="BJ22" s="1" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
@@ -7820,7 +7820,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AQ23" s="3" t="inlineStr">
+      <c r="AQ23" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
@@ -7865,7 +7865,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AZ23" s="3" t="inlineStr">
+      <c r="AZ23" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -7890,7 +7890,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="BE23" s="4" t="inlineStr">
+      <c r="BE23" s="1" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
@@ -7900,7 +7900,7 @@
           <t>01011</t>
         </is>
       </c>
-      <c r="BG23" s="4" t="inlineStr">
+      <c r="BG23" s="1" t="inlineStr">
         <is>
           <t>01001</t>
         </is>
@@ -7915,19 +7915,19 @@
           <t>00101</t>
         </is>
       </c>
-      <c r="BJ23" s="4" t="inlineStr">
+      <c r="BJ23" s="1" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BK23" s="4" t="inlineStr">
+      <c r="BK23" s="1" t="inlineStr">
         <is>
           <t>010101</t>
         </is>
       </c>
-      <c r="BL23" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL23" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8132,7 +8132,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AO24" s="1" t="inlineStr">
+      <c r="AO24" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -8142,7 +8142,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AQ24" s="1" t="inlineStr">
+      <c r="AQ24" s="3" t="inlineStr">
         <is>
           <t>0101</t>
         </is>
@@ -8157,7 +8157,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AT24" s="1" t="inlineStr">
+      <c r="AT24" s="3" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -8172,7 +8172,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AW24" s="1" t="inlineStr">
+      <c r="AW24" s="3" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -8182,12 +8182,12 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AY24" s="1" t="inlineStr">
+      <c r="AY24" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="AZ24" s="1" t="inlineStr">
+      <c r="AZ24" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -8202,54 +8202,54 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BC24" s="1" t="inlineStr">
+      <c r="BC24" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BD24" s="1" t="inlineStr">
+      <c r="BD24" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BE24" s="1" t="inlineStr">
+      <c r="BE24" s="4" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
       </c>
-      <c r="BF24" s="1" t="inlineStr">
+      <c r="BF24" s="4" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
       </c>
-      <c r="BG24" s="1" t="inlineStr">
+      <c r="BG24" s="4" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
       </c>
-      <c r="BH24" s="1" t="inlineStr">
+      <c r="BH24" s="4" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BI24" s="1" t="inlineStr">
+      <c r="BI24" s="4" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
       </c>
-      <c r="BJ24" s="1" t="inlineStr">
+      <c r="BJ24" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BK24" s="1" t="inlineStr">
+      <c r="BK24" s="4" t="inlineStr">
         <is>
           <t>010110</t>
         </is>
       </c>
-      <c r="BL24" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL24" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8464,7 +8464,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AQ25" s="1" t="inlineStr">
+      <c r="AQ25" s="3" t="inlineStr">
         <is>
           <t>0101</t>
         </is>
@@ -8509,7 +8509,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AZ25" s="1" t="inlineStr">
+      <c r="AZ25" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -8519,7 +8519,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="BB25" s="1" t="inlineStr">
+      <c r="BB25" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -8534,7 +8534,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="BE25" s="1" t="inlineStr">
+      <c r="BE25" s="4" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
@@ -8544,7 +8544,7 @@
           <t>01011</t>
         </is>
       </c>
-      <c r="BG25" s="1" t="inlineStr">
+      <c r="BG25" s="4" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
@@ -8559,19 +8559,19 @@
           <t>00111</t>
         </is>
       </c>
-      <c r="BJ25" s="1" t="inlineStr">
+      <c r="BJ25" s="4" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BK25" s="1" t="inlineStr">
+      <c r="BK25" s="4" t="inlineStr">
         <is>
           <t>010111</t>
         </is>
       </c>
-      <c r="BL25" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL25" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
           <t>01111</t>
         </is>
       </c>
-      <c r="BH29" s="1" t="inlineStr">
+      <c r="BH29" s="3" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
@@ -9852,14 +9852,14 @@
           <t>11011</t>
         </is>
       </c>
-      <c r="BK29" s="1" t="inlineStr">
+      <c r="BK29" s="4" t="inlineStr">
         <is>
           <t>011011</t>
         </is>
       </c>
-      <c r="BL29" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL29" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10089,7 +10089,7 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AT30" s="1" t="inlineStr">
+      <c r="AT30" s="3" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -10124,7 +10124,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="BA30" s="1" t="inlineStr">
+      <c r="BA30" s="3" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -10149,7 +10149,7 @@
           <t>01110</t>
         </is>
       </c>
-      <c r="BF30" s="1" t="inlineStr">
+      <c r="BF30" s="4" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
@@ -10159,7 +10159,7 @@
           <t>01100</t>
         </is>
       </c>
-      <c r="BH30" s="1" t="inlineStr">
+      <c r="BH30" s="4" t="inlineStr">
         <is>
           <t>01100</t>
         </is>
@@ -10169,19 +10169,19 @@
           <t>01100</t>
         </is>
       </c>
-      <c r="BJ30" s="1" t="inlineStr">
+      <c r="BJ30" s="4" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BK30" s="1" t="inlineStr">
+      <c r="BK30" s="4" t="inlineStr">
         <is>
           <t>011100</t>
         </is>
       </c>
-      <c r="BL30" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL30" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10708,7 +10708,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AO32" s="1" t="inlineStr">
+      <c r="AO32" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -10733,7 +10733,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AT32" s="1" t="inlineStr">
+      <c r="AT32" s="3" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -10758,7 +10758,7 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AY32" s="1" t="inlineStr">
+      <c r="AY32" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -10768,7 +10768,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="BA32" s="1" t="inlineStr">
+      <c r="BA32" s="3" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -10778,12 +10778,12 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="BC32" s="1" t="inlineStr">
+      <c r="BC32" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BD32" s="1" t="inlineStr">
+      <c r="BD32" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -10793,7 +10793,7 @@
           <t>01111</t>
         </is>
       </c>
-      <c r="BF32" s="1" t="inlineStr">
+      <c r="BF32" s="4" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
@@ -10803,29 +10803,29 @@
           <t>01110</t>
         </is>
       </c>
-      <c r="BH32" s="1" t="inlineStr">
+      <c r="BH32" s="4" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BI32" s="1" t="inlineStr">
+      <c r="BI32" s="4" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BJ32" s="1" t="inlineStr">
+      <c r="BJ32" s="4" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BK32" s="1" t="inlineStr">
+      <c r="BK32" s="4" t="inlineStr">
         <is>
           <t>011110</t>
         </is>
       </c>
-      <c r="BL32" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL32" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11267,7 +11267,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="X34" s="1" t="inlineStr">
+      <c r="X34" s="3" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -11312,7 +11312,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AG34" s="1" t="inlineStr">
+      <c r="AG34" s="3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -11362,7 +11362,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AQ34" s="1" t="inlineStr">
+      <c r="AQ34" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11372,7 +11372,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AS34" s="1" t="inlineStr">
+      <c r="AS34" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11382,7 +11382,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AU34" s="1" t="inlineStr">
+      <c r="AU34" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11407,7 +11407,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AZ34" s="1" t="inlineStr">
+      <c r="AZ34" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -11417,7 +11417,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="BB34" s="1" t="inlineStr">
+      <c r="BB34" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -11432,7 +11432,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="BE34" s="1" t="inlineStr">
+      <c r="BE34" s="4" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
@@ -11442,12 +11442,12 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="BG34" s="1" t="inlineStr">
+      <c r="BG34" s="4" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="BH34" s="1" t="inlineStr">
+      <c r="BH34" s="4" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
@@ -11457,19 +11457,19 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="BJ34" s="1" t="inlineStr">
+      <c r="BJ34" s="4" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BK34" s="1" t="inlineStr">
+      <c r="BK34" s="4" t="inlineStr">
         <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="BL34" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL34" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11589,7 +11589,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="X35" s="1" t="inlineStr">
+      <c r="X35" s="3" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -11634,7 +11634,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AG35" s="1" t="inlineStr">
+      <c r="AG35" s="3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -11684,7 +11684,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AQ35" s="1" t="inlineStr">
+      <c r="AQ35" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11694,7 +11694,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AS35" s="1" t="inlineStr">
+      <c r="AS35" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11704,7 +11704,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AU35" s="1" t="inlineStr">
+      <c r="AU35" s="4" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -11729,7 +11729,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AZ35" s="1" t="inlineStr">
+      <c r="AZ35" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -11739,7 +11739,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="BB35" s="1" t="inlineStr">
+      <c r="BB35" s="4" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -11754,7 +11754,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="BE35" s="1" t="inlineStr">
+      <c r="BE35" s="4" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
@@ -11764,12 +11764,12 @@
           <t>10001</t>
         </is>
       </c>
-      <c r="BG35" s="1" t="inlineStr">
+      <c r="BG35" s="4" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
       </c>
-      <c r="BH35" s="1" t="inlineStr">
+      <c r="BH35" s="4" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
@@ -11779,19 +11779,19 @@
           <t>10001</t>
         </is>
       </c>
-      <c r="BJ35" s="1" t="inlineStr">
+      <c r="BJ35" s="4" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BK35" s="1" t="inlineStr">
+      <c r="BK35" s="4" t="inlineStr">
         <is>
           <t>100001</t>
         </is>
       </c>
-      <c r="BL35" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL35" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12555,7 +12555,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="X38" s="1" t="inlineStr">
+      <c r="X38" s="3" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -12600,7 +12600,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AG38" s="1" t="inlineStr">
+      <c r="AG38" s="3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -12650,7 +12650,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AQ38" s="1" t="inlineStr">
+      <c r="AQ38" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -12660,22 +12660,22 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AS38" s="1" t="inlineStr">
+      <c r="AS38" s="4" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AT38" s="1" t="inlineStr">
+      <c r="AT38" s="3" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AU38" s="1" t="inlineStr">
+      <c r="AU38" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="AV38" s="3" t="inlineStr">
+      <c r="AV38" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -12695,17 +12695,17 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AZ38" s="1" t="inlineStr">
+      <c r="AZ38" s="4" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="BA38" s="1" t="inlineStr">
+      <c r="BA38" s="3" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="BB38" s="1" t="inlineStr">
+      <c r="BB38" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -12725,27 +12725,27 @@
           <t>10010</t>
         </is>
       </c>
-      <c r="BF38" s="1" t="inlineStr">
+      <c r="BF38" s="4" t="inlineStr">
         <is>
           <t>10010</t>
         </is>
       </c>
-      <c r="BG38" s="1" t="inlineStr">
+      <c r="BG38" s="4" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="BH38" s="1" t="inlineStr">
+      <c r="BH38" s="4" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BI38" s="4" t="inlineStr">
+      <c r="BI38" s="1" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BJ38" s="1" t="inlineStr">
+      <c r="BJ38" s="4" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
@@ -12877,7 +12877,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="X39" s="1" t="inlineStr">
+      <c r="X39" s="3" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -12922,7 +12922,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AG39" s="1" t="inlineStr">
+      <c r="AG39" s="3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -12972,7 +12972,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AQ39" s="1" t="inlineStr">
+      <c r="AQ39" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -12982,7 +12982,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AS39" s="1" t="inlineStr">
+      <c r="AS39" s="4" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -12992,12 +12992,12 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AU39" s="1" t="inlineStr">
+      <c r="AU39" s="4" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
       </c>
-      <c r="AV39" s="3" t="inlineStr">
+      <c r="AV39" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -13017,7 +13017,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AZ39" s="1" t="inlineStr">
+      <c r="AZ39" s="4" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -13027,7 +13027,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BB39" s="1" t="inlineStr">
+      <c r="BB39" s="4" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -13052,22 +13052,22 @@
           <t>10011</t>
         </is>
       </c>
-      <c r="BG39" s="1" t="inlineStr">
+      <c r="BG39" s="4" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
       </c>
-      <c r="BH39" s="1" t="inlineStr">
+      <c r="BH39" s="4" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BI39" s="4" t="inlineStr">
+      <c r="BI39" s="1" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BJ39" s="1" t="inlineStr">
+      <c r="BJ39" s="4" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
@@ -13284,7 +13284,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AO40" s="1" t="inlineStr">
+      <c r="AO40" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -13309,7 +13309,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AT40" s="1" t="inlineStr">
+      <c r="AT40" s="3" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -13334,7 +13334,7 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AY40" s="1" t="inlineStr">
+      <c r="AY40" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -13344,7 +13344,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BA40" s="1" t="inlineStr">
+      <c r="BA40" s="3" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -13354,12 +13354,12 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="BC40" s="1" t="inlineStr">
+      <c r="BC40" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BD40" s="1" t="inlineStr">
+      <c r="BD40" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -13369,7 +13369,7 @@
           <t>10011</t>
         </is>
       </c>
-      <c r="BF40" s="1" t="inlineStr">
+      <c r="BF40" s="4" t="inlineStr">
         <is>
           <t>10010</t>
         </is>
@@ -13379,29 +13379,29 @@
           <t>10010</t>
         </is>
       </c>
-      <c r="BH40" s="1" t="inlineStr">
+      <c r="BH40" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BI40" s="1" t="inlineStr">
+      <c r="BI40" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BJ40" s="1" t="inlineStr">
+      <c r="BJ40" s="4" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
       </c>
-      <c r="BK40" s="1" t="inlineStr">
+      <c r="BK40" s="4" t="inlineStr">
         <is>
           <t>100110</t>
         </is>
       </c>
-      <c r="BL40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL40" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13843,7 +13843,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="X42" s="1" t="inlineStr">
+      <c r="X42" s="3" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -13858,7 +13858,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AA42" s="1" t="inlineStr">
+      <c r="AA42" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -13938,7 +13938,7 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AQ42" s="1" t="inlineStr">
+      <c r="AQ42" s="4" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -13948,7 +13948,7 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AS42" s="1" t="inlineStr">
+      <c r="AS42" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -13958,12 +13958,12 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AU42" s="1" t="inlineStr">
+      <c r="AU42" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="AV42" s="1" t="inlineStr">
+      <c r="AV42" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -13973,7 +13973,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AX42" s="1" t="inlineStr">
+      <c r="AX42" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -14008,7 +14008,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="BE42" s="1" t="inlineStr">
+      <c r="BE42" s="4" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
@@ -14018,17 +14018,17 @@
           <t>10100</t>
         </is>
       </c>
-      <c r="BG42" s="1" t="inlineStr">
+      <c r="BG42" s="4" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BH42" s="1" t="inlineStr">
+      <c r="BH42" s="4" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="BI42" s="1" t="inlineStr">
+      <c r="BI42" s="4" t="inlineStr">
         <is>
           <t>11000</t>
         </is>
@@ -14038,14 +14038,14 @@
           <t>01000</t>
         </is>
       </c>
-      <c r="BK42" s="1" t="inlineStr">
+      <c r="BK42" s="4" t="inlineStr">
         <is>
           <t>101000</t>
         </is>
       </c>
-      <c r="BL42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL42" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="X43" s="1" t="inlineStr">
+      <c r="X43" s="3" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -14180,7 +14180,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AA43" s="1" t="inlineStr">
+      <c r="AA43" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -14260,17 +14260,17 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AQ43" s="1" t="inlineStr">
+      <c r="AQ43" s="4" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AR43" s="1" t="inlineStr">
+      <c r="AR43" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
       </c>
-      <c r="AS43" s="1" t="inlineStr">
+      <c r="AS43" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -14280,12 +14280,12 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AU43" s="1" t="inlineStr">
+      <c r="AU43" s="4" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
       </c>
-      <c r="AV43" s="1" t="inlineStr">
+      <c r="AV43" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -14295,7 +14295,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AX43" s="1" t="inlineStr">
+      <c r="AX43" s="4" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -14330,27 +14330,27 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="BE43" s="1" t="inlineStr">
+      <c r="BE43" s="4" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BF43" s="1" t="inlineStr">
+      <c r="BF43" s="4" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BG43" s="1" t="inlineStr">
+      <c r="BG43" s="4" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BH43" s="1" t="inlineStr">
+      <c r="BH43" s="4" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
       </c>
-      <c r="BI43" s="1" t="inlineStr">
+      <c r="BI43" s="4" t="inlineStr">
         <is>
           <t>11001</t>
         </is>
@@ -14360,14 +14360,14 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BK43" s="1" t="inlineStr">
+      <c r="BK43" s="4" t="inlineStr">
         <is>
           <t>101001</t>
         </is>
       </c>
-      <c r="BL43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL43" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14909,7 +14909,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AR45" s="1" t="inlineStr">
+      <c r="AR45" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -14979,12 +14979,12 @@
           <t>10101</t>
         </is>
       </c>
-      <c r="BF45" s="1" t="inlineStr">
+      <c r="BF45" s="4" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BG45" s="1" t="inlineStr">
+      <c r="BG45" s="4" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
@@ -15004,14 +15004,14 @@
           <t>01011</t>
         </is>
       </c>
-      <c r="BK45" s="1" t="inlineStr">
+      <c r="BK45" s="4" t="inlineStr">
         <is>
           <t>101011</t>
         </is>
       </c>
-      <c r="BL45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL45" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15131,7 +15131,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="X46" s="1" t="inlineStr">
+      <c r="X46" s="3" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -15146,7 +15146,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AA46" s="1" t="inlineStr">
+      <c r="AA46" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -15221,12 +15221,12 @@
           <t>100</t>
         </is>
       </c>
-      <c r="AP46" s="1" t="inlineStr">
+      <c r="AP46" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
       </c>
-      <c r="AQ46" s="1" t="inlineStr">
+      <c r="AQ46" s="4" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -15236,32 +15236,32 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AS46" s="1" t="inlineStr">
+      <c r="AS46" s="4" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AT46" s="1" t="inlineStr">
+      <c r="AT46" s="3" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AU46" s="1" t="inlineStr">
+      <c r="AU46" s="4" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="AV46" s="1" t="inlineStr">
+      <c r="AV46" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AW46" s="1" t="inlineStr">
+      <c r="AW46" s="3" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AX46" s="1" t="inlineStr">
+      <c r="AX46" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -15296,27 +15296,27 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="BE46" s="1" t="inlineStr">
+      <c r="BE46" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BF46" s="1" t="inlineStr">
+      <c r="BF46" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BG46" s="1" t="inlineStr">
+      <c r="BG46" s="4" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BH46" s="1" t="inlineStr">
+      <c r="BH46" s="4" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BI46" s="1" t="inlineStr">
+      <c r="BI46" s="4" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
@@ -15326,14 +15326,14 @@
           <t>01100</t>
         </is>
       </c>
-      <c r="BK46" s="1" t="inlineStr">
+      <c r="BK46" s="4" t="inlineStr">
         <is>
           <t>101100</t>
         </is>
       </c>
-      <c r="BL46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL46" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15453,7 +15453,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="X47" s="1" t="inlineStr">
+      <c r="X47" s="3" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -15468,7 +15468,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AA47" s="1" t="inlineStr">
+      <c r="AA47" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -15543,22 +15543,22 @@
           <t>101</t>
         </is>
       </c>
-      <c r="AP47" s="1" t="inlineStr">
+      <c r="AP47" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
       </c>
-      <c r="AQ47" s="1" t="inlineStr">
+      <c r="AQ47" s="4" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AR47" s="1" t="inlineStr">
+      <c r="AR47" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
       </c>
-      <c r="AS47" s="1" t="inlineStr">
+      <c r="AS47" s="4" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -15568,12 +15568,12 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AU47" s="1" t="inlineStr">
+      <c r="AU47" s="4" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
       </c>
-      <c r="AV47" s="1" t="inlineStr">
+      <c r="AV47" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -15583,7 +15583,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AX47" s="1" t="inlineStr">
+      <c r="AX47" s="4" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -15618,27 +15618,27 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="BE47" s="1" t="inlineStr">
+      <c r="BE47" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BF47" s="1" t="inlineStr">
+      <c r="BF47" s="4" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BG47" s="1" t="inlineStr">
+      <c r="BG47" s="4" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BH47" s="1" t="inlineStr">
+      <c r="BH47" s="4" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BI47" s="1" t="inlineStr">
+      <c r="BI47" s="4" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
@@ -15648,14 +15648,14 @@
           <t>01101</t>
         </is>
       </c>
-      <c r="BK47" s="1" t="inlineStr">
+      <c r="BK47" s="4" t="inlineStr">
         <is>
           <t>101101</t>
         </is>
       </c>
-      <c r="BL47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL47" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15860,12 +15860,12 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AO48" s="1" t="inlineStr">
+      <c r="AO48" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="AP48" s="1" t="inlineStr">
+      <c r="AP48" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -15885,7 +15885,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AT48" s="1" t="inlineStr">
+      <c r="AT48" s="3" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -15900,7 +15900,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AW48" s="1" t="inlineStr">
+      <c r="AW48" s="3" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -15910,12 +15910,12 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AY48" s="1" t="inlineStr">
+      <c r="AY48" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AZ48" s="1" t="inlineStr">
+      <c r="AZ48" s="3" t="inlineStr">
         <is>
           <t>0111</t>
         </is>
@@ -15930,22 +15930,22 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="BC48" s="1" t="inlineStr">
+      <c r="BC48" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BD48" s="1" t="inlineStr">
+      <c r="BD48" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BE48" s="1" t="inlineStr">
+      <c r="BE48" s="4" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BF48" s="1" t="inlineStr">
+      <c r="BF48" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
@@ -15955,29 +15955,29 @@
           <t>10110</t>
         </is>
       </c>
-      <c r="BH48" s="1" t="inlineStr">
+      <c r="BH48" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BI48" s="1" t="inlineStr">
+      <c r="BI48" s="4" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BJ48" s="1" t="inlineStr">
+      <c r="BJ48" s="4" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BK48" s="1" t="inlineStr">
+      <c r="BK48" s="4" t="inlineStr">
         <is>
           <t>101110</t>
         </is>
       </c>
-      <c r="BL48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL48" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16187,7 +16187,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AP49" s="1" t="inlineStr">
+      <c r="AP49" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -16197,7 +16197,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AR49" s="1" t="inlineStr">
+      <c r="AR49" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -16237,7 +16237,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AZ49" s="1" t="inlineStr">
+      <c r="AZ49" s="3" t="inlineStr">
         <is>
           <t>0111</t>
         </is>
@@ -16262,17 +16262,17 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="BE49" s="1" t="inlineStr">
+      <c r="BE49" s="4" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BF49" s="1" t="inlineStr">
+      <c r="BF49" s="4" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BG49" s="1" t="inlineStr">
+      <c r="BG49" s="4" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
@@ -16287,19 +16287,19 @@
           <t>11111</t>
         </is>
       </c>
-      <c r="BJ49" s="1" t="inlineStr">
+      <c r="BJ49" s="4" t="inlineStr">
         <is>
           <t>01111</t>
         </is>
       </c>
-      <c r="BK49" s="1" t="inlineStr">
+      <c r="BK49" s="4" t="inlineStr">
         <is>
           <t>101111</t>
         </is>
       </c>
-      <c r="BL49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL49" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17168,7 +17168,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AS52" s="3" t="inlineStr">
+      <c r="AS52" s="1" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -17203,7 +17203,7 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AZ52" s="3" t="inlineStr">
+      <c r="AZ52" s="1" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -17228,7 +17228,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="BE52" s="4" t="inlineStr">
+      <c r="BE52" s="1" t="inlineStr">
         <is>
           <t>11001</t>
         </is>
@@ -17243,7 +17243,7 @@
           <t>11010</t>
         </is>
       </c>
-      <c r="BH52" s="4" t="inlineStr">
+      <c r="BH52" s="1" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
@@ -17253,19 +17253,19 @@
           <t>10010</t>
         </is>
       </c>
-      <c r="BJ52" s="4" t="inlineStr">
+      <c r="BJ52" s="1" t="inlineStr">
         <is>
           <t>10010</t>
         </is>
       </c>
-      <c r="BK52" s="4" t="inlineStr">
+      <c r="BK52" s="1" t="inlineStr">
         <is>
           <t>110010</t>
         </is>
       </c>
-      <c r="BL52" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL52" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17490,7 +17490,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AS53" s="3" t="inlineStr">
+      <c r="AS53" s="1" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -17525,7 +17525,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AZ53" s="3" t="inlineStr">
+      <c r="AZ53" s="1" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -17535,7 +17535,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="BB53" s="1" t="inlineStr">
+      <c r="BB53" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -17550,7 +17550,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BE53" s="4" t="inlineStr">
+      <c r="BE53" s="1" t="inlineStr">
         <is>
           <t>11001</t>
         </is>
@@ -17560,12 +17560,12 @@
           <t>11001</t>
         </is>
       </c>
-      <c r="BG53" s="1" t="inlineStr">
+      <c r="BG53" s="4" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
       </c>
-      <c r="BH53" s="4" t="inlineStr">
+      <c r="BH53" s="1" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -17812,7 +17812,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AS54" s="3" t="inlineStr">
+      <c r="AS54" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -17827,7 +17827,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AV54" s="3" t="inlineStr">
+      <c r="AV54" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -17847,7 +17847,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AZ54" s="3" t="inlineStr">
+      <c r="AZ54" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -17872,7 +17872,7 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="BE54" s="4" t="inlineStr">
+      <c r="BE54" s="1" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
@@ -17887,29 +17887,29 @@
           <t>11000</t>
         </is>
       </c>
-      <c r="BH54" s="4" t="inlineStr">
+      <c r="BH54" s="1" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BI54" s="4" t="inlineStr">
+      <c r="BI54" s="1" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BJ54" s="4" t="inlineStr">
+      <c r="BJ54" s="1" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BK54" s="4" t="inlineStr">
+      <c r="BK54" s="1" t="inlineStr">
         <is>
           <t>110100</t>
         </is>
       </c>
-      <c r="BL54" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL54" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18134,7 +18134,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AS55" s="3" t="inlineStr">
+      <c r="AS55" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -18149,7 +18149,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AV55" s="3" t="inlineStr">
+      <c r="AV55" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -18169,7 +18169,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AZ55" s="3" t="inlineStr">
+      <c r="AZ55" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -18194,7 +18194,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="BE55" s="4" t="inlineStr">
+      <c r="BE55" s="1" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
@@ -18209,29 +18209,29 @@
           <t>11001</t>
         </is>
       </c>
-      <c r="BH55" s="4" t="inlineStr">
+      <c r="BH55" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BI55" s="4" t="inlineStr">
+      <c r="BI55" s="1" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BJ55" s="4" t="inlineStr">
+      <c r="BJ55" s="1" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BK55" s="4" t="inlineStr">
+      <c r="BK55" s="1" t="inlineStr">
         <is>
           <t>110101</t>
         </is>
       </c>
-      <c r="BL55" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL55" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18436,7 +18436,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AO56" s="1" t="inlineStr">
+      <c r="AO56" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -18486,12 +18486,12 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AY56" s="1" t="inlineStr">
+      <c r="AY56" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AZ56" s="1" t="inlineStr">
+      <c r="AZ56" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -18506,17 +18506,17 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BC56" s="1" t="inlineStr">
+      <c r="BC56" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BD56" s="1" t="inlineStr">
+      <c r="BD56" s="4" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BE56" s="1" t="inlineStr">
+      <c r="BE56" s="4" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -18531,29 +18531,29 @@
           <t>11010</t>
         </is>
       </c>
-      <c r="BH56" s="1" t="inlineStr">
+      <c r="BH56" s="4" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BI56" s="1" t="inlineStr">
+      <c r="BI56" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BJ56" s="1" t="inlineStr">
+      <c r="BJ56" s="4" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BK56" s="1" t="inlineStr">
+      <c r="BK56" s="4" t="inlineStr">
         <is>
           <t>110110</t>
         </is>
       </c>
-      <c r="BL56" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL56" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18813,7 +18813,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AZ57" s="1" t="inlineStr">
+      <c r="AZ57" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -18823,7 +18823,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="BB57" s="1" t="inlineStr">
+      <c r="BB57" s="3" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -18838,7 +18838,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="BE57" s="1" t="inlineStr">
+      <c r="BE57" s="4" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -18848,7 +18848,7 @@
           <t>11011</t>
         </is>
       </c>
-      <c r="BG57" s="1" t="inlineStr">
+      <c r="BG57" s="4" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -18863,19 +18863,19 @@
           <t>10111</t>
         </is>
       </c>
-      <c r="BJ57" s="1" t="inlineStr">
+      <c r="BJ57" s="4" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BK57" s="1" t="inlineStr">
+      <c r="BK57" s="4" t="inlineStr">
         <is>
           <t>110111</t>
         </is>
       </c>
-      <c r="BL57" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL57" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18985,7 +18985,7 @@
           <t>00</t>
         </is>
       </c>
-      <c r="V58" s="3" t="inlineStr">
+      <c r="V58" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -19010,7 +19010,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AA58" s="1" t="inlineStr">
+      <c r="AA58" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -19085,7 +19085,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AP58" s="4" t="inlineStr">
+      <c r="AP58" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -19095,7 +19095,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AR58" s="4" t="inlineStr">
+      <c r="AR58" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -19115,7 +19115,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AV58" s="1" t="inlineStr">
+      <c r="AV58" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -19125,7 +19125,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AX58" s="1" t="inlineStr">
+      <c r="AX58" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -19165,7 +19165,7 @@
           <t>11100</t>
         </is>
       </c>
-      <c r="BF58" s="4" t="inlineStr">
+      <c r="BF58" s="1" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
@@ -19180,7 +19180,7 @@
           <t>11000</t>
         </is>
       </c>
-      <c r="BI58" s="1" t="inlineStr">
+      <c r="BI58" s="4" t="inlineStr">
         <is>
           <t>11000</t>
         </is>
@@ -19307,7 +19307,7 @@
           <t>01</t>
         </is>
       </c>
-      <c r="V59" s="3" t="inlineStr">
+      <c r="V59" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -19332,7 +19332,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AA59" s="1" t="inlineStr">
+      <c r="AA59" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -19407,7 +19407,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AP59" s="4" t="inlineStr">
+      <c r="AP59" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -19417,7 +19417,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AR59" s="4" t="inlineStr">
+      <c r="AR59" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
@@ -19437,7 +19437,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AV59" s="1" t="inlineStr">
+      <c r="AV59" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -19447,7 +19447,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AX59" s="1" t="inlineStr">
+      <c r="AX59" s="4" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -19487,7 +19487,7 @@
           <t>11100</t>
         </is>
       </c>
-      <c r="BF59" s="4" t="inlineStr">
+      <c r="BF59" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
@@ -19502,7 +19502,7 @@
           <t>11001</t>
         </is>
       </c>
-      <c r="BI59" s="1" t="inlineStr">
+      <c r="BI59" s="4" t="inlineStr">
         <is>
           <t>11001</t>
         </is>
@@ -19629,7 +19629,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="V60" s="3" t="inlineStr">
+      <c r="V60" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -19729,22 +19729,22 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AP60" s="4" t="inlineStr">
+      <c r="AP60" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AQ60" s="4" t="inlineStr">
+      <c r="AQ60" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AR60" s="4" t="inlineStr">
+      <c r="AR60" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AS60" s="3" t="inlineStr">
+      <c r="AS60" s="1" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -19804,22 +19804,22 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BE60" s="4" t="inlineStr">
+      <c r="BE60" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BF60" s="4" t="inlineStr">
+      <c r="BF60" s="1" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BG60" s="4" t="inlineStr">
+      <c r="BG60" s="1" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BH60" s="4" t="inlineStr">
+      <c r="BH60" s="1" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
@@ -19834,14 +19834,14 @@
           <t>11010</t>
         </is>
       </c>
-      <c r="BK60" s="4" t="inlineStr">
+      <c r="BK60" s="1" t="inlineStr">
         <is>
           <t>111010</t>
         </is>
       </c>
-      <c r="BL60" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL60" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -19951,7 +19951,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="V61" s="3" t="inlineStr">
+      <c r="V61" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -20051,22 +20051,22 @@
           <t>011</t>
         </is>
       </c>
-      <c r="AP61" s="4" t="inlineStr">
+      <c r="AP61" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AQ61" s="4" t="inlineStr">
+      <c r="AQ61" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AR61" s="4" t="inlineStr">
+      <c r="AR61" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AS61" s="3" t="inlineStr">
+      <c r="AS61" s="1" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -20126,22 +20126,22 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="BE61" s="4" t="inlineStr">
+      <c r="BE61" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BF61" s="4" t="inlineStr">
+      <c r="BF61" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BG61" s="4" t="inlineStr">
+      <c r="BG61" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
       </c>
-      <c r="BH61" s="4" t="inlineStr">
+      <c r="BH61" s="1" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -20156,14 +20156,14 @@
           <t>11011</t>
         </is>
       </c>
-      <c r="BK61" s="4" t="inlineStr">
+      <c r="BK61" s="1" t="inlineStr">
         <is>
           <t>111011</t>
         </is>
       </c>
-      <c r="BL61" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL61" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -20273,7 +20273,7 @@
           <t>00</t>
         </is>
       </c>
-      <c r="V62" s="3" t="inlineStr">
+      <c r="V62" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -20298,7 +20298,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AA62" s="1" t="inlineStr">
+      <c r="AA62" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -20373,7 +20373,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="AP62" s="4" t="inlineStr">
+      <c r="AP62" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
@@ -20383,12 +20383,12 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AR62" s="4" t="inlineStr">
+      <c r="AR62" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AS62" s="3" t="inlineStr">
+      <c r="AS62" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -20403,17 +20403,17 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AV62" s="1" t="inlineStr">
+      <c r="AV62" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AW62" s="1" t="inlineStr">
+      <c r="AW62" s="3" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AX62" s="1" t="inlineStr">
+      <c r="AX62" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -20428,7 +20428,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="BA62" s="1" t="inlineStr">
+      <c r="BA62" s="3" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -20463,17 +20463,17 @@
           <t>11100</t>
         </is>
       </c>
-      <c r="BH62" s="4" t="inlineStr">
+      <c r="BH62" s="1" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BI62" s="1" t="inlineStr">
+      <c r="BI62" s="4" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BJ62" s="1" t="inlineStr">
+      <c r="BJ62" s="4" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
@@ -20595,7 +20595,7 @@
           <t>01</t>
         </is>
       </c>
-      <c r="V63" s="3" t="inlineStr">
+      <c r="V63" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -20620,7 +20620,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AA63" s="1" t="inlineStr">
+      <c r="AA63" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -20695,7 +20695,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="AP63" s="4" t="inlineStr">
+      <c r="AP63" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
@@ -20705,12 +20705,12 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AR63" s="4" t="inlineStr">
+      <c r="AR63" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AS63" s="3" t="inlineStr">
+      <c r="AS63" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -20725,7 +20725,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AV63" s="1" t="inlineStr">
+      <c r="AV63" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -20735,7 +20735,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AX63" s="1" t="inlineStr">
+      <c r="AX63" s="4" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -20775,7 +20775,7 @@
           <t>11110</t>
         </is>
       </c>
-      <c r="BF63" s="4" t="inlineStr">
+      <c r="BF63" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
@@ -20785,12 +20785,12 @@
           <t>11101</t>
         </is>
       </c>
-      <c r="BH63" s="4" t="inlineStr">
+      <c r="BH63" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BI63" s="1" t="inlineStr">
+      <c r="BI63" s="4" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
@@ -20917,7 +20917,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="V64" s="3" t="inlineStr">
+      <c r="V64" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -21012,22 +21012,22 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AO64" s="1" t="inlineStr">
+      <c r="AO64" s="3" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="AP64" s="4" t="inlineStr">
+      <c r="AP64" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AQ64" s="4" t="inlineStr">
+      <c r="AQ64" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AR64" s="4" t="inlineStr">
+      <c r="AR64" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -21052,7 +21052,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AW64" s="1" t="inlineStr">
+      <c r="AW64" s="3" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -21062,7 +21062,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AY64" s="1" t="inlineStr">
+      <c r="AY64" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -21072,7 +21072,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="BA64" s="1" t="inlineStr">
+      <c r="BA64" s="3" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -21082,17 +21082,17 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="BC64" s="1" t="inlineStr">
+      <c r="BC64" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BD64" s="1" t="inlineStr">
+      <c r="BD64" s="4" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BE64" s="4" t="inlineStr">
+      <c r="BE64" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
@@ -21102,22 +21102,22 @@
           <t>11110</t>
         </is>
       </c>
-      <c r="BG64" s="4" t="inlineStr">
+      <c r="BG64" s="1" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BH64" s="1" t="inlineStr">
+      <c r="BH64" s="4" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BI64" s="1" t="inlineStr">
+      <c r="BI64" s="4" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BJ64" s="1" t="inlineStr">
+      <c r="BJ64" s="4" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
@@ -21239,7 +21239,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="V65" s="3" t="inlineStr">
+      <c r="V65" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -21339,17 +21339,17 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AP65" s="4" t="inlineStr">
+      <c r="AP65" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AQ65" s="4" t="inlineStr">
+      <c r="AQ65" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AR65" s="4" t="inlineStr">
+      <c r="AR65" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
@@ -21414,17 +21414,17 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="BE65" s="4" t="inlineStr">
+      <c r="BE65" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
       </c>
-      <c r="BF65" s="4" t="inlineStr">
+      <c r="BF65" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
       </c>
-      <c r="BG65" s="4" t="inlineStr">
+      <c r="BG65" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
@@ -21444,14 +21444,14 @@
           <t>11111</t>
         </is>
       </c>
-      <c r="BK65" s="4" t="inlineStr">
+      <c r="BK65" s="1" t="inlineStr">
         <is>
           <t>111111</t>
         </is>
       </c>
-      <c r="BL65" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL65" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
